--- a/InputData/elec/SES/Seasonal Electricity Storage.xlsx
+++ b/InputData/elec/SES/Seasonal Electricity Storage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\NV\elec\SES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Rissman\CodeRepositories\eps-us\InputData\elec\SES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{233F4983-4356-4498-9A2C-F37DFC8BFEF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017C1B14-8274-4182-9C89-7F44E6BEEFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" firstSheet="1" activeTab="3" xr2:uid="{78AD1A57-EE8B-429E-82B5-7F18B2E9410A}"/>
+    <workbookView xWindow="29790" yWindow="2370" windowWidth="29460" windowHeight="20220" xr2:uid="{78AD1A57-EE8B-429E-82B5-7F18B2E9410A}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>SES Seasonal Electricity Storage Capacity</t>
   </si>
@@ -178,9 +178,6 @@
   </si>
   <si>
     <t>Present-Day Capacity</t>
-  </si>
-  <si>
-    <t>Nevada</t>
   </si>
 </sst>
 </file>
@@ -265,9 +262,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -638,9 +635,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854D2354-DEF2-427F-84E2-87F1715F500F}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -648,28 +645,22 @@
     <col min="2" max="2" width="65.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="9">
-        <v>45294</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -677,52 +668,52 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>2023</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>2019</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
         <v>29</v>
       </c>
@@ -783,10 +774,10 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="8"/>
+      <c r="B31" s="9"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -799,30 +790,36 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="7" t="s">
         <v>35</v>
       </c>
     </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+    </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="7" t="s">
         <v>36</v>
       </c>
     </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+    </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="8"/>
+      <c r="B40" s="9"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -872,7 +869,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -889,9 +886,7 @@
   </sheetPr>
   <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -998,123 +993,123 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C2">
         <f>$B2</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:AE2" si="0">$B2</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AE2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1129,9 +1124,7 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/InputData/elec/SES/Seasonal Electricity Storage.xlsx
+++ b/InputData/elec/SES/Seasonal Electricity Storage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Rissman\CodeRepositories\eps-us\InputData\elec\SES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\NV\elec\SES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017C1B14-8274-4182-9C89-7F44E6BEEFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{233F4983-4356-4498-9A2C-F37DFC8BFEF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29790" yWindow="2370" windowWidth="29460" windowHeight="20220" xr2:uid="{78AD1A57-EE8B-429E-82B5-7F18B2E9410A}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" firstSheet="1" activeTab="3" xr2:uid="{78AD1A57-EE8B-429E-82B5-7F18B2E9410A}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>SES Seasonal Electricity Storage Capacity</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>Present-Day Capacity</t>
+  </si>
+  <si>
+    <t>Nevada</t>
   </si>
 </sst>
 </file>
@@ -262,9 +265,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -635,9 +638,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854D2354-DEF2-427F-84E2-87F1715F500F}">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -645,22 +648,28 @@
     <col min="2" max="2" width="65.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="9">
+        <v>45294</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -668,52 +677,52 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>2023</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>2019</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
         <v>29</v>
       </c>
@@ -774,10 +783,10 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="9"/>
+      <c r="B31" s="8"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -790,36 +799,30 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+      <c r="A34" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+      <c r="A35" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-    </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
+      <c r="A37" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+      <c r="A38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-    </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="9"/>
+      <c r="B40" s="8"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -869,7 +872,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -886,7 +889,9 @@
   </sheetPr>
   <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -993,123 +998,123 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <f>$B2</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:AE2" si="0">$B2</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AE2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1124,7 +1129,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
